--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\inhibitiontasks\Create_db\add_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B64F6F1-8C1C-4A05-91BF-23303DF81686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C307BF-982C-418A-923F-41C6DE2F4E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -1551,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1843,7 +1843,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2476,7 +2476,7 @@
         <v>0.94</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -2500,7 +2500,7 @@
         <v>0.80645161290322576</v>
       </c>
       <c r="F7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -3223,7 +3223,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3673,7 +3673,7 @@
   <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C307BF-982C-418A-923F-41C6DE2F4E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B75B16-1C64-43D2-A26D-922FBFCF5077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="381">
   <si>
     <t>study</t>
   </si>
@@ -1131,6 +1131,57 @@
   </si>
   <si>
     <t>Univeristy of Virginia</t>
+  </si>
+  <si>
+    <t>Enkavi</t>
+  </si>
+  <si>
+    <t>A. Zeynep Enkavia, Ian W. Eisenberg, Patrick G. Bissett, Gina L. Mazza, David P. MacKinnon, Lisa A. Marsc, Russell A. Poldrack</t>
+  </si>
+  <si>
+    <t>zenkavi@stanford.edu</t>
+  </si>
+  <si>
+    <t>self regulation, retest reliability, individual differences</t>
+  </si>
+  <si>
+    <t>enkavi_2019_large</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Large-scale investigation into retest-reliabilities of self-regulation measures based on a) a literature review of reported reliability measures and b) newly collected data of the same task battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partipants recruited on Mturk </t>
+  </si>
+  <si>
+    <t>Enkavi stroop</t>
+  </si>
+  <si>
+    <t>Enkavi simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simon </t>
+  </si>
+  <si>
+    <t>Color stroop task: Participants categorized the color of a presented word using one of three keys; irrelevant stimulus was the words' semantic meaning</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/jstbcs/acdc-database/main/data/enkavi_2019_large/stroop.csv</t>
+  </si>
+  <si>
+    <t>Enkavi stroop wave 1</t>
+  </si>
+  <si>
+    <t>Enkavi stroop wave 2</t>
+  </si>
+  <si>
+    <t>Test phase; first measurement wave (July - September 2016)</t>
+  </si>
+  <si>
+    <t>Retest phase; 2nd measurement wave (November 2016 - March 2017)</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1203,6 +1254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1234,6 +1291,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1549,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1823,6 +1881,32 @@
         <v>67</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G11" t="s">
+        <v>367</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I11" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{EEA56B93-BF73-4856-9DA1-9A3B5BA67A8B}"/>
@@ -1833,6 +1917,7 @@
     <hyperlink ref="F7" r:id="rId6" xr:uid="{86228BAE-DDA4-4767-90AD-EC51F2564A28}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{2AC655EA-B2E6-46BA-9AF5-7CF2241941BD}"/>
     <hyperlink ref="F5" r:id="rId8" xr:uid="{1AC344C5-7FEF-42ED-A7EA-742769BFDA83}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{6EE7083C-CB23-46FC-B9FB-ED39AD2DCC15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1840,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2330,6 +2415,18 @@
         <v>90</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2339,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3189,6 +3286,26 @@
         <v>349</v>
       </c>
     </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>34.1</v>
+      </c>
+      <c r="E36">
+        <v>0.52</v>
+      </c>
+      <c r="F36" s="11">
+        <v>150</v>
+      </c>
+      <c r="G36" t="s">
+        <v>371</v>
+      </c>
+    </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="S42" s="10"/>
     </row>
@@ -3220,10 +3337,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3663,6 +3780,31 @@
         <v>162</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>373</v>
+      </c>
+      <c r="C33" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3670,10 +3812,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5496,6 +5638,41 @@
       </c>
       <c r="K51" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52">
+        <v>150</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>96</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" t="s">
+        <v>175</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K52" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5549,6 +5726,7 @@
     <hyperlink ref="J10" r:id="rId47" xr:uid="{20972848-216D-4D3D-983A-1819FA93E846}"/>
     <hyperlink ref="J13" r:id="rId48" xr:uid="{6FCCDE21-475D-492D-9C7D-8755A92556BE}"/>
     <hyperlink ref="J12" r:id="rId49" xr:uid="{BE262AB6-BEC1-4DDB-B754-32D92F1510FD}"/>
+    <hyperlink ref="J52" r:id="rId50" xr:uid="{02E21F3F-A79D-4E4D-B123-FB6E9F80DD62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5556,10 +5734,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6516,6 +6694,34 @@
         <v>289</v>
       </c>
     </row>
+    <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>377</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>378</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6523,10 +6729,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7132,6 +7338,14 @@
         <v>284</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B75B16-1C64-43D2-A26D-922FBFCF5077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359A3687-835C-4B79-B880-96B223179D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="386">
   <si>
     <t>study</t>
   </si>
@@ -1182,6 +1182,21 @@
   </si>
   <si>
     <t>Retest phase; 2nd measurement wave (November 2016 - March 2017)</t>
+  </si>
+  <si>
+    <t>Participants had to identify the color of a box (relevant stimulus) which appeared to the left or right side of the screen (location: irrelevant stimulus) by pressing a LEFT or RIGHT arrow on a computer keyboard. In congruent trials the location of the target word matched the response key; in incongruent trials it did not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no info </t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/jstbcs/acdc-database/main/data/enkavi_2019_large/simon.csv</t>
+  </si>
+  <si>
+    <t>dataset51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enkavi simon </t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,6 +1307,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1927,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2436,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3299,8 +3315,8 @@
       <c r="E36">
         <v>0.52</v>
       </c>
-      <c r="F36" s="11">
-        <v>150</v>
+      <c r="F36" s="12">
+        <v>522</v>
       </c>
       <c r="G36" t="s">
         <v>371</v>
@@ -3339,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3794,7 +3810,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3803,6 +3819,9 @@
       </c>
       <c r="C33" t="s">
         <v>374</v>
+      </c>
+      <c r="D33" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3812,10 +3831,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5651,7 +5670,7 @@
         <v>103</v>
       </c>
       <c r="D52">
-        <v>150</v>
+        <v>522</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5672,7 +5691,42 @@
         <v>376</v>
       </c>
       <c r="K52" t="s">
-        <v>215</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>373</v>
+      </c>
+      <c r="C53" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53">
+        <v>522</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53" t="s">
+        <v>175</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K53" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -5727,6 +5781,7 @@
     <hyperlink ref="J13" r:id="rId48" xr:uid="{6FCCDE21-475D-492D-9C7D-8755A92556BE}"/>
     <hyperlink ref="J12" r:id="rId49" xr:uid="{BE262AB6-BEC1-4DDB-B754-32D92F1510FD}"/>
     <hyperlink ref="J52" r:id="rId50" xr:uid="{02E21F3F-A79D-4E4D-B123-FB6E9F80DD62}"/>
+    <hyperlink ref="J53" r:id="rId51" xr:uid="{DEE600D3-A019-46D1-9DC3-9A6FDEE878D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5734,10 +5789,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6722,6 +6777,14 @@
         <v>380</v>
       </c>
     </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6729,10 +6792,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7346,6 +7409,14 @@
         <v>372</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359A3687-835C-4B79-B880-96B223179D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AB5628-CB58-4AA8-9C21-96ACE656D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="388">
   <si>
     <t>study</t>
   </si>
@@ -1136,9 +1136,6 @@
     <t>Enkavi</t>
   </si>
   <si>
-    <t>A. Zeynep Enkavia, Ian W. Eisenberg, Patrick G. Bissett, Gina L. Mazza, David P. MacKinnon, Lisa A. Marsc, Russell A. Poldrack</t>
-  </si>
-  <si>
     <t>zenkavi@stanford.edu</t>
   </si>
   <si>
@@ -1148,9 +1145,6 @@
     <t>enkavi_2019_large</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>Large-scale investigation into retest-reliabilities of self-regulation measures based on a) a literature review of reported reliability measures and b) newly collected data of the same task battery</t>
   </si>
   <si>
@@ -1196,7 +1190,19 @@
     <t>dataset51</t>
   </si>
   <si>
-    <t xml:space="preserve">Enkavi simon </t>
+    <t>Enkavi simon wave 1</t>
+  </si>
+  <si>
+    <t>Enkavi simon wave 2</t>
+  </si>
+  <si>
+    <t>Enkavi, A. Z., Eisenberg, I. W., Bissett, P. G., Mazza, G. L., MacKinnon, D. P., Marsch, L. A., &amp; Poldrack, R. A. (2019). Large-scale analysis of test–retest reliabilities of self-regulation measures. Proceedings of the National Academy of Sciences of the National Academy of Sciences of the United States of America, 116(12), 5472–5477. https://doi.org/10.1073/pnas.1818430116</t>
+  </si>
+  <si>
+    <t>A. Zeynep Enkavi, Ian W. Eisenberg, Patrick G. Bissett, Gina L. Mazza, David P. MacKinnon, Lisa A. Marsc, Russell A. Poldrack</t>
+  </si>
+  <si>
+    <t>dataset52</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,12 +1275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1306,7 +1306,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1626,7 +1625,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1902,7 +1901,7 @@
         <v>364</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -1911,16 +1910,16 @@
         <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" t="s">
         <v>366</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I11" t="s">
         <v>367</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="I11" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -1943,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2438,9 +2437,11 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="11">
+        <v>35</v>
+      </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3315,11 +3316,11 @@
       <c r="E36">
         <v>0.52</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36">
         <v>522</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.35">
@@ -3355,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3801,13 +3802,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C32" t="s">
         <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -3815,13 +3816,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D33" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +3835,7 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5664,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C52" t="s">
         <v>103</v>
@@ -5688,10 +5689,10 @@
         <v>175</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K52" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -5699,10 +5700,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C53" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D53">
         <v>522</v>
@@ -5723,10 +5724,10 @@
         <v>175</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K53" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5789,10 +5790,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6754,13 +6755,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
+        <v>375</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6768,21 +6769,41 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>385</v>
+        <v>383</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>384</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -6792,10 +6813,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7406,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -7414,7 +7435,31 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>373</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AB5628-CB58-4AA8-9C21-96ACE656D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A5F441-8F8C-451B-A642-8A12AFD4EB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="446">
   <si>
     <t>study</t>
   </si>
@@ -1203,6 +1203,181 @@
   </si>
   <si>
     <t>dataset52</t>
+  </si>
+  <si>
+    <t>Kucina</t>
+  </si>
+  <si>
+    <t>Talira Kucina, Lindsay Wells, Ian Lewis, Kristy de Salas, Amelia Kohl, Matthew A. Palmer, James D. Sauer, Dora Matzke, Eugene Aidman &amp; Andrew Heathcote</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>talira.kucina@utas.edu.au</t>
+  </si>
+  <si>
+    <t>attentional control, individual differences, reliability paradox</t>
+  </si>
+  <si>
+    <t>kucina_2023_calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kucina </t>
+  </si>
+  <si>
+    <t>Kucina 1</t>
+  </si>
+  <si>
+    <t>Kucina 2</t>
+  </si>
+  <si>
+    <t>Kucina 3</t>
+  </si>
+  <si>
+    <t>Kucina 4</t>
+  </si>
+  <si>
+    <t>Kucina 5</t>
+  </si>
+  <si>
+    <t>Participants completing a traditional flanker task ("Flanker1")</t>
+  </si>
+  <si>
+    <t>Participants completing a flanker task with additional manipulation ("Flanker2")</t>
+  </si>
+  <si>
+    <t>Participants completing a stroop task with additional manipulation ("Stroop2")</t>
+  </si>
+  <si>
+    <t>Participants completing a simon task with additional manipulation ("Simon2")</t>
+  </si>
+  <si>
+    <t>Participants completing a combination of stroop and simon task with no additional manipulation ("Stroopon")</t>
+  </si>
+  <si>
+    <t>Participants completing a combination of stroop and simon task with additional manipulation ("Stroopon2")</t>
+  </si>
+  <si>
+    <t>Kucina Stroop2</t>
+  </si>
+  <si>
+    <t>Kucina Simon2</t>
+  </si>
+  <si>
+    <t>Kucina Stroopon</t>
+  </si>
+  <si>
+    <t>Kucina Stroopon2</t>
+  </si>
+  <si>
+    <t>Kucina Flanker1</t>
+  </si>
+  <si>
+    <t>Kucina Flanker2</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Introduction of gamified and calibrated versions of stroop, simon, and flanker tasks with an additional manipulation to encourage processing of conflicting information,
+as a combination of stroop+simon task in order to enhance the reliability of estimations of individual differences in attentional control.</t>
+  </si>
+  <si>
+    <t>Participants had to identify the color of a rectangle (either orange associated with a right key response and blue with a left key, or vice versa); irrelevant stimulus was the location the rectangle appeared in (either right or left side of the screen); In a randomly chosen 1/3 of the trials, participants were asked to provide a second response afterwards, indicating the actual location of the rectangle (i.e., the irrelevant stimulus)</t>
+  </si>
+  <si>
+    <t>Classical stroop task with a modfication: Participants had to identify the font color words while ignoring their semantic meaning; however in 1/3 of the trials they were asked to additionally provide a second response indicating the irrelevant stimulus they previously had to surpress (i.e., semantic meaning of the word)</t>
+  </si>
+  <si>
+    <t>A combination of simon and stroop task: Color words (blue or orange) in colored font (blue or orange) appeared either on the left or right side of the screen. Participants had to identify font color by pressing a lkey with their right (/) or left (Z) hand.Irrelevant stimuli were semantic word meaning and the side the word appeared on. Trials could be either double-congruent (font color was in line with both semantic meaning and the correct response key was on the same side as the word's location on the screen) or double-incongruent (font color did not correspond to the word's meaning and the word appeared on the other side of the screen than the correct key response)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A combination of simon and stroop task: Color words (blue or orange) in colored font (blue or orange) appeared either on the left or right side of the screen. Participants had to identify font color by pressing a lkey with their right (/) or left (Z) hand.Irrelevant stimuli were semantic word meaning and the side the word appeared on. Trials could be either double-congruent (font color was in line with both semantic meaning and the correct response key was on the same side as the word's location on the screen) or double-incongruent (font color did not correspond to the word's meaning and the word appeared on the other side of the screen than the correct key response); Additionally, in a randomly chosen 1/3 of the trials, participants were asked to additionally provide a second response after the first in which they had to indicate one of the irrevelant stimuli (i.e., either the semantic meaning of the word or its location) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrow flanker task: Participants had to identify the direction of the central arrow (left or right); irrelevant stimulus was the direction of the four flanking arrows; the central arrow's location on the screen appeared slightly deviated from the center of the screen in some trials to introduce spatial uncertainty; responses were given by pressing Z with the left hand or / with the right hand for left and right responses respectively </t>
+  </si>
+  <si>
+    <t>Arrow flanker task with a modification: Participants had to identify the direction of the central arrow (left or right); irrelevant stimulus was the direction of the four flanking arrows; the central arrow's location on the screen appeared slightly deviated from the center of the screen in some trials to introduce spatial uncertainty; responses were given by pressing Z with the left hand or / with the right hand for left and right responses respectively. However on a randomly chosen 33.33% of the trials participants were asked to provide an additional second response after the first in which they had to indicate the irrelevant stimulus (i.e., the direction of the flanking arrows)</t>
+  </si>
+  <si>
+    <t>excluded participants with incomplete data and those who failed a tutorial at the start of the experiment</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/jstbcs/acdc-database/main/data/kucina_2023_calibration/data4.csv</t>
+  </si>
+  <si>
+    <t>dataset53</t>
+  </si>
+  <si>
+    <t>dataset54</t>
+  </si>
+  <si>
+    <t>dataset55</t>
+  </si>
+  <si>
+    <t>dataset56</t>
+  </si>
+  <si>
+    <t>dataset57</t>
+  </si>
+  <si>
+    <t>dataset58</t>
+  </si>
+  <si>
+    <t>none but "hurry up" message after 2 sec</t>
+  </si>
+  <si>
+    <t>Kucina Stroop2- Single response trial</t>
+  </si>
+  <si>
+    <t>Kucina Simon2- Single response trial</t>
+  </si>
+  <si>
+    <t>Kucina Stroop2- Double response trial</t>
+  </si>
+  <si>
+    <t>Kucina Simon2- Double response trial</t>
+  </si>
+  <si>
+    <t>No within manipulation</t>
+  </si>
+  <si>
+    <t>Kucina Stroopon2 - Single response trial</t>
+  </si>
+  <si>
+    <t>Kucina Stroopon2 - Double response trial</t>
+  </si>
+  <si>
+    <t>Single response trial: Trials on which articipants had to respond to the relevant stimulus only (font color)</t>
+  </si>
+  <si>
+    <t>Single response trial: Trials on which articipants had to respond to the relevant stimulus only (rectangle color)</t>
+  </si>
+  <si>
+    <t>Double response trial: Trials on which participants first responded to the relevant stimulus (font color) and where then asked to additionally respond to the irrelevant stimulus afterwards (semantic meaning of word)</t>
+  </si>
+  <si>
+    <t>Double response trial: Trials on which participants first responded to the relevant stimulus (color of rectangle) and where then asked to additionally respond to the irrelevant stimulus afterwards (side the rectangle appeared on)</t>
+  </si>
+  <si>
+    <t>Double response trial: Trials on which participants first responded to the relevant stimulus (font color) and where then asked to additionally respond to the irrelevant stimulus afterwards (semantic meaning of word// side of screen the word appeared on)</t>
+  </si>
+  <si>
+    <t>Kucina Flanker2- Single response trial</t>
+  </si>
+  <si>
+    <t>Kucina Flanker2- Double response trial</t>
+  </si>
+  <si>
+    <t>Single response trial: Trials on which articipants had to respond to the relevant stimulus only (direction of central arrow)</t>
+  </si>
+  <si>
+    <t>Double response trial: Trials on which participants first responded to the relevant stimulus (direction of central arrow) and where then asked to additionally respond to the irrelevant stimulus afterwards (direction of flanking arrows)</t>
+  </si>
+  <si>
+    <t>Kucina 6</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,6 +1450,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1306,7 +1487,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1622,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1922,6 +2106,32 @@
         <v>367</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="E12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{EEA56B93-BF73-4856-9DA1-9A3B5BA67A8B}"/>
@@ -1933,6 +2143,7 @@
     <hyperlink ref="F8" r:id="rId7" xr:uid="{2AC655EA-B2E6-46BA-9AF5-7CF2241941BD}"/>
     <hyperlink ref="F5" r:id="rId8" xr:uid="{1AC344C5-7FEF-42ED-A7EA-742769BFDA83}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{6EE7083C-CB23-46FC-B9FB-ED39AD2DCC15}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{E1360CE3-FFB6-477F-A262-E234B0E97B60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1940,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2437,11 +2648,25 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35">
         <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>394</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -2453,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2467,7 +2692,7 @@
     <col min="7" max="7" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
@@ -2490,7 +2715,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2507,7 +2732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2524,7 +2749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2548,7 +2773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2572,7 +2797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2596,7 +2821,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2620,7 +2845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2644,7 +2869,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2661,7 +2886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2678,7 +2903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2695,7 +2920,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2719,7 +2944,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2742,7 +2967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2763,7 +2988,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2785,14 +3010,16 @@
       <c r="G15" t="s">
         <v>98</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="K15">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>246</v>
       </c>
@@ -2811,14 +3038,16 @@
       <c r="G16" t="s">
         <v>98</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="K16">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>248</v>
       </c>
@@ -2837,14 +3066,16 @@
       <c r="G17" t="s">
         <v>98</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="K17">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>250</v>
       </c>
@@ -2863,14 +3094,16 @@
       <c r="G18" t="s">
         <v>98</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="K18">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>252</v>
       </c>
@@ -2889,14 +3122,16 @@
       <c r="G19" t="s">
         <v>98</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="K19">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>254</v>
       </c>
@@ -2915,14 +3150,16 @@
       <c r="G20" t="s">
         <v>98</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="K20">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>256</v>
       </c>
@@ -2941,14 +3178,16 @@
       <c r="G21" t="s">
         <v>98</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="K21">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>258</v>
       </c>
@@ -2967,14 +3206,16 @@
       <c r="G22" t="s">
         <v>98</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="K22">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>260</v>
       </c>
@@ -2993,14 +3234,16 @@
       <c r="G23" t="s">
         <v>98</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="K23">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>262</v>
       </c>
@@ -3019,14 +3262,16 @@
       <c r="G24" t="s">
         <v>354</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="K24">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>264</v>
       </c>
@@ -3045,14 +3290,16 @@
       <c r="G25" t="s">
         <v>98</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="K25">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>266</v>
       </c>
@@ -3071,14 +3318,16 @@
       <c r="G26" t="s">
         <v>98</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="K26">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>268</v>
       </c>
@@ -3097,14 +3346,16 @@
       <c r="G27" t="s">
         <v>98</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="K27">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>270</v>
       </c>
@@ -3123,14 +3374,16 @@
       <c r="G28" t="s">
         <v>98</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="K28">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>272</v>
       </c>
@@ -3149,11 +3402,14 @@
       <c r="G29" t="s">
         <v>357</v>
       </c>
-      <c r="K29">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>274</v>
       </c>
@@ -3172,14 +3428,16 @@
       <c r="G30" t="s">
         <v>98</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="K30">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>276</v>
       </c>
@@ -3198,14 +3456,16 @@
       <c r="G31" t="s">
         <v>98</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="K31">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>278</v>
       </c>
@@ -3224,12 +3484,14 @@
       <c r="G32" t="s">
         <v>98</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="K32">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10">
         <v>31</v>
       </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
@@ -3250,12 +3512,14 @@
       <c r="G33" t="s">
         <v>354</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="K33">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10">
         <v>32</v>
       </c>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
@@ -3276,9 +3540,12 @@
       <c r="G34" t="s">
         <v>98</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="10" t="s">
         <v>362</v>
       </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
@@ -3299,9 +3566,12 @@
       <c r="G35" t="s">
         <v>98</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="10" t="s">
         <v>349</v>
       </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
@@ -3322,8 +3592,91 @@
       <c r="G36" t="s">
         <v>369</v>
       </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>396</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>397</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>398</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>445</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>401</v>
+      </c>
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
@@ -3354,10 +3707,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3799,7 +4152,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>370</v>
@@ -3813,7 +4166,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>371</v>
@@ -3823,6 +4176,90 @@
       </c>
       <c r="D33" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>406</v>
+      </c>
+      <c r="C34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" t="s">
+        <v>412</v>
+      </c>
+      <c r="D36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" t="s">
+        <v>412</v>
+      </c>
+      <c r="D37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>411</v>
+      </c>
+      <c r="C39" t="s">
+        <v>412</v>
+      </c>
+      <c r="D39" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3832,10 +4269,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5728,6 +6165,223 @@
       </c>
       <c r="K53" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C56" t="s">
+        <v>420</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" t="s">
+        <v>428</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>407</v>
+      </c>
+      <c r="C57" t="s">
+        <v>420</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>36</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" t="s">
+        <v>428</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>408</v>
+      </c>
+      <c r="C58" t="s">
+        <v>420</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="E58">
+        <v>36</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" t="s">
+        <v>428</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" t="s">
+        <v>420</v>
+      </c>
+      <c r="D59">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>36</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" t="s">
+        <v>428</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>410</v>
+      </c>
+      <c r="C60" t="s">
+        <v>420</v>
+      </c>
+      <c r="D60">
+        <v>33</v>
+      </c>
+      <c r="E60">
+        <v>36</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60" t="s">
+        <v>428</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K60" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>411</v>
+      </c>
+      <c r="C61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>36</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>103</v>
+      </c>
+      <c r="I61" t="s">
+        <v>428</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5783,6 +6437,12 @@
     <hyperlink ref="J12" r:id="rId49" xr:uid="{BE262AB6-BEC1-4DDB-B754-32D92F1510FD}"/>
     <hyperlink ref="J52" r:id="rId50" xr:uid="{02E21F3F-A79D-4E4D-B123-FB6E9F80DD62}"/>
     <hyperlink ref="J53" r:id="rId51" xr:uid="{DEE600D3-A019-46D1-9DC3-9A6FDEE878D8}"/>
+    <hyperlink ref="J56" r:id="rId52" xr:uid="{008F5847-4465-49F8-9A77-1D744DA01444}"/>
+    <hyperlink ref="J57" r:id="rId53" xr:uid="{864E1D2E-A086-4BE7-82DF-794CE1732C9D}"/>
+    <hyperlink ref="J58" r:id="rId54" xr:uid="{4D65D99D-5735-4D4A-ACC3-857256C8639D}"/>
+    <hyperlink ref="J59" r:id="rId55" xr:uid="{CE4B6D3A-CEF7-44CB-AC73-740F7CFC5E01}"/>
+    <hyperlink ref="J60" r:id="rId56" xr:uid="{992FA71F-3DB4-4C96-AB9E-13D6BE604AAC}"/>
+    <hyperlink ref="J61" r:id="rId57" xr:uid="{DA7FE050-E207-4231-B433-4E90CAB92A1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5790,10 +6450,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6750,7 +7410,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1</v>
       </c>
@@ -6760,7 +7420,7 @@
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6774,11 +7434,11 @@
       <c r="C70">
         <v>2</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
@@ -6788,11 +7448,11 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1</v>
       </c>
@@ -6802,8 +7462,118 @@
       <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>429</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>431</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>430</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>432</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>408</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>434</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>435</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>410</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>441</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>442</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -6813,10 +7583,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7358,7 +8128,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7366,7 +8136,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
@@ -7374,7 +8144,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1</v>
       </c>
@@ -7382,7 +8152,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1</v>
       </c>
@@ -7390,7 +8160,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1</v>
       </c>
@@ -7398,7 +8168,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1</v>
       </c>
@@ -7406,7 +8176,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
@@ -7414,7 +8184,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1</v>
       </c>
@@ -7422,7 +8192,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1</v>
       </c>
@@ -7430,7 +8200,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1</v>
       </c>
@@ -7438,7 +8208,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
@@ -7446,7 +8216,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1</v>
       </c>
@@ -7454,12 +8224,208 @@
         <v>383</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C78" s="12">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C79" s="12">
+        <v>2</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" s="12">
+        <v>1</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C81" s="12">
+        <v>2</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C82" s="12">
+        <v>1</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C83" s="12">
+        <v>2</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C85" s="12">
+        <v>2</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C86" s="12">
+        <v>1</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C87" s="12">
+        <v>1</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C88" s="12">
+        <v>2</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C89" s="12">
+        <v>1</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C90" s="12">
+        <v>1</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" s="12">
+        <v>2</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A5F441-8F8C-451B-A642-8A12AFD4EB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1DEBB-2CC5-4A9C-8DDB-3475C732F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2679,7 +2679,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B37" sqref="B37:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7585,7 +7585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1DEBB-2CC5-4A9C-8DDB-3475C732F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D9162-31C2-498C-8E10-F24A3236A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="447">
   <si>
     <t>study</t>
   </si>
@@ -1378,6 +1378,9 @@
   </si>
   <si>
     <t>Kucina 6</t>
+  </si>
+  <si>
+    <t>Kucina, T., Wells, L., Lewis, I., De Salas, K., Kohl, A., Palmer, M. A., Sauer, J. D., Matzke, D., Aidman, E., &amp; Heathcote, A. (2023). Calibration of cognitive tests to address the reliability paradox for decision-conflict tasks. Nature Communications, 14(1). https://doi.org/10.1038/s41467-023-37777-2</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1450,12 +1453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,9 +1484,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1808,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2125,8 +2124,8 @@
       <c r="G12" t="s">
         <v>392</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>104</v>
+      <c r="H12" s="12" t="s">
+        <v>446</v>
       </c>
       <c r="I12" t="s">
         <v>393</v>
@@ -7585,7 +7584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -8236,13 +8235,13 @@
       <c r="A78">
         <v>3</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C78" s="12">
-        <v>1</v>
-      </c>
-      <c r="D78" s="12" t="s">
+      <c r="C78" s="11">
+        <v>1</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8250,13 +8249,13 @@
       <c r="A79">
         <v>3</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="11">
         <v>2</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8264,13 +8263,13 @@
       <c r="A80">
         <v>3</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C80" s="12">
-        <v>1</v>
-      </c>
-      <c r="D80" s="12" t="s">
+      <c r="C80" s="11">
+        <v>1</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8278,13 +8277,13 @@
       <c r="A81">
         <v>3</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>2</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="11" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8292,13 +8291,13 @@
       <c r="A82">
         <v>3</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C82" s="12">
-        <v>1</v>
-      </c>
-      <c r="D82" s="12" t="s">
+      <c r="C82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8306,13 +8305,13 @@
       <c r="A83">
         <v>3</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="11">
         <v>2</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="11" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8320,13 +8319,13 @@
       <c r="A84">
         <v>3</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C84" s="12">
-        <v>1</v>
-      </c>
-      <c r="D84" s="12" t="s">
+      <c r="C84" s="11">
+        <v>1</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8334,13 +8333,13 @@
       <c r="A85">
         <v>3</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="11">
         <v>2</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8348,13 +8347,13 @@
       <c r="A86">
         <v>3</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="C86" s="12">
-        <v>1</v>
-      </c>
-      <c r="D86" s="12" t="s">
+      <c r="C86" s="11">
+        <v>1</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8362,13 +8361,13 @@
       <c r="A87">
         <v>3</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C87" s="12">
-        <v>1</v>
-      </c>
-      <c r="D87" s="12" t="s">
+      <c r="C87" s="11">
+        <v>1</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8376,13 +8375,13 @@
       <c r="A88">
         <v>3</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="11">
         <v>2</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="11" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8390,13 +8389,13 @@
       <c r="A89">
         <v>3</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C89" s="12">
-        <v>1</v>
-      </c>
-      <c r="D89" s="12" t="s">
+      <c r="C89" s="11">
+        <v>1</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8404,13 +8403,13 @@
       <c r="A90">
         <v>3</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C90" s="12">
-        <v>1</v>
-      </c>
-      <c r="D90" s="12" t="s">
+      <c r="C90" s="11">
+        <v>1</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8418,13 +8417,13 @@
       <c r="A91">
         <v>3</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <v>2</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="11" t="s">
         <v>444</v>
       </c>
     </row>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D9162-31C2-498C-8E10-F24A3236A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF9A4A-EAD2-4968-BB10-F89A552C41D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="462">
   <si>
     <t>study</t>
   </si>
@@ -587,45 +587,21 @@
     <t>dataset3</t>
   </si>
   <si>
-    <t xml:space="preserve">Rey-Mermet (COLOR STROOP part) </t>
-  </si>
-  <si>
     <t>2000 ms</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/jstbcs/inhibitiontasks/adding-new-data/data/mermet_2018_should/colStroop.dat.txt</t>
   </si>
   <si>
-    <t>dataset5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rey-Mermet (NUMBER STROOP part) </t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/jstbcs/inhibitiontasks/adding-new-data/data/mermet_2018_should/numStroop.dat.txt</t>
   </si>
   <si>
-    <t>dataset4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rey-Mermet (ARROW FLANKER TASK) </t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/jstbcs/inhibitiontasks/adding-new-data/data/mermet_2018_should/arrowFlanker.dat.txt</t>
   </si>
   <si>
-    <t>dataset11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rey-Mermet (LETTER FLANKER TASK) </t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/jstbcs/inhibitiontasks/adding-new-data/data/mermet_2018_should/letFlanker.dat.txt</t>
   </si>
   <si>
-    <t>dataset12</t>
-  </si>
-  <si>
     <t>https://github.com/jstbcs/inhibitiontasks/tree/adding-new-data/data/hedge_2018_reliability/Study1-Stroop</t>
   </si>
   <si>
@@ -1014,30 +990,6 @@
   </si>
   <si>
     <t>n_obs</t>
-  </si>
-  <si>
-    <t>Rey-Mermet (COLOR STROOP part) young</t>
-  </si>
-  <si>
-    <t>Rey-Mermet (COLOR STROOP part) old</t>
-  </si>
-  <si>
-    <t>Rey-Mermet (NUMBER STROOP part) young</t>
-  </si>
-  <si>
-    <t>Rey-Mermet (NUMBER STROOP part) old</t>
-  </si>
-  <si>
-    <t>Rey-Mermet (ARROW FLANKER TASK) young</t>
-  </si>
-  <si>
-    <t>Rey-Mermet (ARROW FLANKER TASK) old</t>
-  </si>
-  <si>
-    <t>Rey-Mermet (LETTER FLANKER TASK) young</t>
-  </si>
-  <si>
-    <t>Rey-Mermet (LETTER FLANKER TASK) old</t>
   </si>
   <si>
     <t>Hedge study 1 stroop test</t>
@@ -1381,6 +1333,99 @@
   </si>
   <si>
     <t>Kucina, T., Wells, L., Lewis, I., De Salas, K., Kohl, A., Palmer, M. A., Sauer, J. D., Matzke, D., Aidman, E., &amp; Heathcote, A. (2023). Calibration of cognitive tests to address the reliability paradox for decision-conflict tasks. Nature Communications, 14(1). https://doi.org/10.1038/s41467-023-37777-2</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (COLOR STROOP part) group 1</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (NUMBER STROOP part) Group 1</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (ARROW FLANKER TASK) Group 1</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (LETTER FLANKER TASK) Group 1</t>
+  </si>
+  <si>
+    <t>dataset12a</t>
+  </si>
+  <si>
+    <t>dataset11a</t>
+  </si>
+  <si>
+    <t>dataset4a</t>
+  </si>
+  <si>
+    <t>dataset5a</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (COLOR STROOP part) Group 2</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (NUMBER STROOP part) Group 2</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (ARROW FLANKER TASK) Group 2</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (LETTER FLANKER TASK) Group2</t>
+  </si>
+  <si>
+    <t>dataset5b</t>
+  </si>
+  <si>
+    <t>dataset4b</t>
+  </si>
+  <si>
+    <t>dataset11b</t>
+  </si>
+  <si>
+    <t>dataset12b</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (COLOR STROOP part) young (group 1)</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (NUMBER STROOP part) young (group 1)</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (ARROW FLANKER TASK) young (group 1)</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (LETTER FLANKER TASK) young (group 1)</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (COLOR STROOP part) old (group 2)</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (NUMBER STROOP part) old (group 2)</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (ARROW FLANKER TASK) old (group 2)</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (LETTER FLANKER TASK) old (group 2)</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (NUMBER STROOP part) group 1</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (ARROW FLANKER TASK) group 1</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (LETTER FLANKER TASK) group 1</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (COLOR STROOP part) group 2</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (NUMBER STROOP part) group 2</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (ARROW FLANKER TASK) group 2</t>
+  </si>
+  <si>
+    <t>Rey-Mermet (LETTER FLANKER TASK) group 2</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1453,6 +1498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,7 +1521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1487,9 +1538,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1807,7 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2081,10 +2133,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -2093,42 +2145,42 @@
         <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="G11" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="I11" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C12">
         <v>2023</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="G12" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="I12" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2152,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2348,7 +2400,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2362,7 +2414,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2376,7 +2428,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2390,7 +2442,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2404,7 +2456,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2418,7 +2470,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2432,7 +2484,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2446,7 +2498,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2460,7 +2512,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2474,7 +2526,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2488,7 +2540,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2502,7 +2554,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2516,7 +2568,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2530,7 +2582,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2544,7 +2596,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2558,7 +2610,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2572,7 +2624,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2586,7 +2638,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2600,7 +2652,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2614,7 +2666,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2628,7 +2680,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2642,7 +2694,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2651,12 +2703,12 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2665,7 +2717,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -2677,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:G42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2992,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3010,7 +3062,7 @@
         <v>98</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10">
@@ -3020,7 +3072,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3038,7 +3090,7 @@
         <v>98</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10">
@@ -3048,7 +3100,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3066,7 +3118,7 @@
         <v>98</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10">
@@ -3076,7 +3128,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3094,7 +3146,7 @@
         <v>98</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10">
@@ -3104,7 +3156,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3122,7 +3174,7 @@
         <v>98</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10">
@@ -3132,7 +3184,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3150,7 +3202,7 @@
         <v>98</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10">
@@ -3160,7 +3212,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3178,7 +3230,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10">
@@ -3188,7 +3240,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3206,7 +3258,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10">
@@ -3216,7 +3268,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3234,7 +3286,7 @@
         <v>98</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10">
@@ -3244,7 +3296,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3259,10 +3311,10 @@
         <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10">
@@ -3272,7 +3324,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3290,7 +3342,7 @@
         <v>98</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10">
@@ -3300,7 +3352,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3318,7 +3370,7 @@
         <v>98</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10">
@@ -3328,7 +3380,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3346,7 +3398,7 @@
         <v>98</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10">
@@ -3356,7 +3408,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3374,7 +3426,7 @@
         <v>98</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10">
@@ -3384,7 +3436,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3399,7 +3451,7 @@
         <v>621</v>
       </c>
       <c r="G29" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -3410,7 +3462,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3428,7 +3480,7 @@
         <v>98</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10">
@@ -3438,7 +3490,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3456,7 +3508,7 @@
         <v>98</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10">
@@ -3466,7 +3518,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3484,7 +3536,7 @@
         <v>98</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10">
@@ -3494,7 +3546,7 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3509,10 +3561,10 @@
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10">
@@ -3522,7 +3574,7 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3540,7 +3592,7 @@
         <v>98</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -3548,7 +3600,7 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3566,7 +3618,7 @@
         <v>98</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -3574,7 +3626,7 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3589,7 +3641,7 @@
         <v>522</v>
       </c>
       <c r="G36" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -3598,18 +3650,18 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3618,12 +3670,12 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -3632,12 +3684,12 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3646,12 +3698,12 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3660,12 +3712,12 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -3674,7 +3726,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="S42" s="10"/>
     </row>
@@ -3706,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3793,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
         <v>117</v>
@@ -3807,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3821,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
         <v>128</v>
@@ -3835,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
         <v>131</v>
@@ -4154,13 +4206,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C32" t="s">
         <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -4168,13 +4220,13 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -4182,13 +4234,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D34" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -4196,13 +4248,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C35" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D35" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -4210,13 +4262,13 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D36" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -4224,13 +4276,13 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D37" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -4238,13 +4290,13 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C38" t="s">
         <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -4252,13 +4304,69 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C39" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D39" t="s">
-        <v>419</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>458</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>459</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>461</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4268,16 +4376,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.453125" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" customWidth="1"/>
     <col min="7" max="7" width="13.26953125" customWidth="1"/>
@@ -4464,14 +4572,14 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>182</v>
+      <c r="B6" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
       </c>
       <c r="D6">
-        <v>287</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -4486,27 +4594,27 @@
         <v>174</v>
       </c>
       <c r="I6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>186</v>
+      <c r="B7" s="13" t="s">
+        <v>432</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
       </c>
       <c r="D7">
-        <v>285</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -4521,27 +4629,27 @@
         <v>174</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>188</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>189</v>
+      <c r="B8" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
       </c>
       <c r="D8">
-        <v>287</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -4556,27 +4664,27 @@
         <v>174</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>192</v>
+      <c r="B9" s="13" t="s">
+        <v>434</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
       </c>
       <c r="D9">
-        <v>286</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -4591,13 +4699,13 @@
         <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4629,10 +4737,10 @@
         <v>175</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -4675,10 +4783,10 @@
         <v>175</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K11" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -4721,10 +4829,10 @@
         <v>175</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -4767,10 +4875,10 @@
         <v>175</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
@@ -4792,7 +4900,7 @@
         <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D14">
         <v>121</v>
@@ -4813,10 +4921,10 @@
         <v>175</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K14" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
@@ -4827,7 +4935,7 @@
         <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D15">
         <v>121</v>
@@ -4848,10 +4956,10 @@
         <v>175</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
@@ -4859,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D16">
         <v>121</v>
@@ -4883,10 +4991,10 @@
         <v>175</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -4897,7 +5005,7 @@
         <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D17">
         <v>221</v>
@@ -4912,16 +5020,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I17" t="s">
         <v>175</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -4932,7 +5040,7 @@
         <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D18">
         <v>221</v>
@@ -4947,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I18" t="s">
         <v>175</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -4967,7 +5075,7 @@
         <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D19">
         <v>221</v>
@@ -4982,16 +5090,16 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I19" t="s">
         <v>175</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -5002,7 +5110,7 @@
         <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D20">
         <v>222</v>
@@ -5017,16 +5125,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I20" t="s">
         <v>175</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -5037,7 +5145,7 @@
         <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D21">
         <v>222</v>
@@ -5052,16 +5160,16 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I21" t="s">
         <v>175</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -5072,7 +5180,7 @@
         <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D22">
         <v>222</v>
@@ -5087,16 +5195,16 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I22" t="s">
         <v>175</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -5107,7 +5215,7 @@
         <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D23">
         <v>222</v>
@@ -5122,16 +5230,16 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I23" t="s">
         <v>175</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -5142,7 +5250,7 @@
         <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D24">
         <v>221</v>
@@ -5157,16 +5265,16 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I24" t="s">
         <v>175</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -5177,7 +5285,7 @@
         <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D25">
         <v>224</v>
@@ -5192,16 +5300,16 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I25" t="s">
         <v>175</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -5209,10 +5317,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D26">
         <v>179</v>
@@ -5227,16 +5335,16 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I26" t="s">
         <v>175</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -5265,13 +5373,13 @@
         <v>174</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -5303,10 +5411,10 @@
         <v>175</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -5338,10 +5446,10 @@
         <v>175</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -5366,10 +5474,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D31">
         <v>163</v>
@@ -5390,10 +5498,10 @@
         <v>175</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -5401,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D32">
         <v>288</v>
@@ -5425,10 +5533,10 @@
         <v>175</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K32" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -5436,10 +5544,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D33">
         <v>138</v>
@@ -5460,10 +5568,10 @@
         <v>175</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -5471,10 +5579,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D34">
         <v>196</v>
@@ -5495,10 +5603,10 @@
         <v>175</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K34" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -5506,10 +5614,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C35" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D35">
         <v>93</v>
@@ -5530,10 +5638,10 @@
         <v>175</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K35" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -5541,10 +5649,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D36">
         <v>177</v>
@@ -5565,10 +5673,10 @@
         <v>175</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K36" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -5576,10 +5684,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D37">
         <v>127</v>
@@ -5600,10 +5708,10 @@
         <v>175</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K37" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -5611,10 +5719,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D38">
         <v>145</v>
@@ -5635,10 +5743,10 @@
         <v>175</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K38" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -5646,10 +5754,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D39">
         <v>132</v>
@@ -5670,10 +5778,10 @@
         <v>175</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K39" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -5681,10 +5789,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C40" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D40">
         <v>82</v>
@@ -5705,10 +5813,10 @@
         <v>175</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K40" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -5716,10 +5824,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D41">
         <v>101</v>
@@ -5740,10 +5848,10 @@
         <v>175</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K41" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -5751,10 +5859,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C42" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D42">
         <v>119</v>
@@ -5775,10 +5883,10 @@
         <v>175</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K42" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -5786,10 +5894,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D43">
         <v>101</v>
@@ -5810,10 +5918,10 @@
         <v>175</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K43" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -5821,10 +5929,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D44">
         <v>120</v>
@@ -5845,10 +5953,10 @@
         <v>175</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -5856,10 +5964,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C45" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D45">
         <v>621</v>
@@ -5880,10 +5988,10 @@
         <v>175</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K45" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -5891,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D46">
         <v>97</v>
@@ -5915,10 +6023,10 @@
         <v>175</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K46" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -5926,10 +6034,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D47">
         <v>181</v>
@@ -5950,10 +6058,10 @@
         <v>175</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K47" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -5961,10 +6069,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D48">
         <v>84</v>
@@ -5985,10 +6093,10 @@
         <v>175</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -5996,10 +6104,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D49">
         <v>51</v>
@@ -6020,10 +6128,10 @@
         <v>175</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K49" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -6031,10 +6139,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D50">
         <v>252</v>
@@ -6055,10 +6163,10 @@
         <v>175</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K50" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -6066,10 +6174,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D51">
         <v>129</v>
@@ -6090,10 +6198,10 @@
         <v>175</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K51" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -6101,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C52" t="s">
         <v>103</v>
@@ -6125,10 +6233,10 @@
         <v>175</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="K52" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -6136,10 +6244,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C53" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D53">
         <v>522</v>
@@ -6160,10 +6268,10 @@
         <v>175</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="K53" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -6171,7 +6279,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -6179,7 +6287,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -6187,10 +6295,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C56" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D56" t="s">
         <v>104</v>
@@ -6199,13 +6307,13 @@
         <v>103</v>
       </c>
       <c r="I56" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="K56" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -6213,10 +6321,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C57" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D57">
         <v>31</v>
@@ -6234,13 +6342,13 @@
         <v>103</v>
       </c>
       <c r="I57" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="K57" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -6248,10 +6356,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C58" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -6269,13 +6377,13 @@
         <v>103</v>
       </c>
       <c r="I58" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="K58" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -6283,10 +6391,10 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C59" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D59">
         <v>31</v>
@@ -6304,13 +6412,13 @@
         <v>103</v>
       </c>
       <c r="I59" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="K59" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -6318,10 +6426,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C60" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D60">
         <v>33</v>
@@ -6339,13 +6447,13 @@
         <v>103</v>
       </c>
       <c r="I60" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="K60" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -6353,10 +6461,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D61">
         <v>30</v>
@@ -6374,13 +6482,153 @@
         <v>103</v>
       </c>
       <c r="I61" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="K61" t="s">
-        <v>427</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62">
+        <v>158</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>74</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" t="s">
+        <v>182</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K62" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>440</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63">
+        <v>156</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>74</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>174</v>
+      </c>
+      <c r="I63" t="s">
+        <v>182</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64">
+        <v>158</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>74</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>174</v>
+      </c>
+      <c r="I64" t="s">
+        <v>182</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K64" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>442</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65">
+        <v>157</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>74</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>174</v>
+      </c>
+      <c r="I65" t="s">
+        <v>182</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K65" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -6442,6 +6690,10 @@
     <hyperlink ref="J59" r:id="rId55" xr:uid="{CE4B6D3A-CEF7-44CB-AC73-740F7CFC5E01}"/>
     <hyperlink ref="J60" r:id="rId56" xr:uid="{992FA71F-3DB4-4C96-AB9E-13D6BE604AAC}"/>
     <hyperlink ref="J61" r:id="rId57" xr:uid="{DA7FE050-E207-4231-B433-4E90CAB92A1A}"/>
+    <hyperlink ref="J62" r:id="rId58" xr:uid="{1576BAA7-96DE-41FC-9924-1E9FDC6C95E8}"/>
+    <hyperlink ref="J63" r:id="rId59" xr:uid="{C9D15297-2947-4FFF-A390-BC4C5EC649E5}"/>
+    <hyperlink ref="J64" r:id="rId60" xr:uid="{34E07ECA-2FE3-4B63-B4DE-0BE259FBAC27}"/>
+    <hyperlink ref="J65" r:id="rId61" xr:uid="{9543C0EC-B435-47CE-9D9A-F88D908304C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6449,10 +6701,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6467,13 +6719,13 @@
         <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6487,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -6501,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -6515,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -6529,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -6543,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -6557,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -6571,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -6585,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -6599,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -6613,7 +6865,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -6627,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -6641,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -6655,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -6669,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -6683,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -6697,7 +6949,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -6711,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -6725,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -6739,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -6753,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -6767,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -6781,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -6795,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -6809,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -6823,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -6837,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -6851,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -6865,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -6873,13 +7125,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -6887,13 +7139,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -6901,13 +7153,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -6915,13 +7167,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -6929,13 +7181,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -6943,13 +7195,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C35">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -6957,13 +7209,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C36">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -6971,13 +7223,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -6985,13 +7237,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -6999,13 +7251,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -7013,13 +7265,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C40">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -7027,13 +7279,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C41">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -7041,13 +7293,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -7055,13 +7307,13 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C43">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -7075,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -7089,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -7103,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -7120,13 +7372,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -7134,13 +7386,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -7148,13 +7400,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -7162,13 +7414,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -7176,13 +7428,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -7190,13 +7442,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -7204,13 +7456,13 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -7218,13 +7470,13 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -7232,13 +7484,13 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -7246,13 +7498,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -7260,13 +7512,13 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -7274,13 +7526,13 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -7288,13 +7540,13 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -7302,13 +7554,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -7316,13 +7568,13 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -7330,13 +7582,13 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -7344,13 +7596,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -7358,13 +7610,13 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -7372,13 +7624,13 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -7386,13 +7638,13 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -7400,13 +7652,13 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -7414,13 +7666,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7428,13 +7680,13 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -7442,13 +7694,13 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -7456,123 +7708,167 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>444</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>439</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>440</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>441</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>442</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7584,8 +7880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7601,19 +7897,19 @@
         <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -7653,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -7661,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>451</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -7670,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -7679,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>452</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -7688,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>449</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -7697,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>453</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -7706,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>450</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -7715,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>454</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -7724,7 +8020,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -7732,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -7740,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -7748,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -7756,7 +8052,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -7764,7 +8060,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -7772,7 +8068,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -7780,7 +8076,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -7796,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -7804,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -7884,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -7892,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -7900,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -7908,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -7916,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -7924,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -7932,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -7940,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -7948,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -7956,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -7964,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -7972,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -7980,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -7988,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -8028,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -8036,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -8044,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -8052,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -8060,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -8068,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -8076,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -8084,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -8092,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -8100,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -8108,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -8116,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -8124,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -8132,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -8140,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -8148,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -8156,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -8164,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -8172,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -8180,7 +8476,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -8188,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -8196,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -8204,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -8212,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -8220,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -8228,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -8236,13 +8532,13 @@
         <v>3</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C78" s="11">
         <v>1</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -8250,13 +8546,13 @@
         <v>3</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C79" s="11">
         <v>2</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -8264,13 +8560,13 @@
         <v>3</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C80" s="11">
         <v>1</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -8278,13 +8574,13 @@
         <v>3</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C81" s="11">
         <v>2</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -8292,13 +8588,13 @@
         <v>3</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C82" s="11">
         <v>1</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -8306,13 +8602,13 @@
         <v>3</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C83" s="11">
         <v>2</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -8320,13 +8616,13 @@
         <v>3</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C84" s="11">
         <v>1</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -8334,13 +8630,13 @@
         <v>3</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C85" s="11">
         <v>2</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -8348,13 +8644,13 @@
         <v>3</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C86" s="11">
         <v>1</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -8362,13 +8658,13 @@
         <v>3</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C87" s="11">
         <v>1</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -8376,13 +8672,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C88" s="11">
         <v>2</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -8390,13 +8686,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C89" s="11">
         <v>1</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -8404,13 +8700,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C90" s="11">
         <v>1</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -8418,13 +8714,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C91" s="11">
         <v>2</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF9A4A-EAD2-4968-BB10-F89A552C41D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D574C7-B710-41AB-B4FF-59198CB12E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="481">
   <si>
     <t>study</t>
   </si>
@@ -1426,6 +1426,63 @@
   </si>
   <si>
     <t>Rey-Mermet (LETTER FLANKER TASK) group 2</t>
+  </si>
+  <si>
+    <t>Löffler</t>
+  </si>
+  <si>
+    <t>Christoph Löffler, Gidon T. Frischkorn, Dirk Hagemann, Kathrin Sadus, Anna-Lena Schubert</t>
+  </si>
+  <si>
+    <t>christoph.loeffler@uni-mainz.de</t>
+  </si>
+  <si>
+    <t>loeffler_2022_common</t>
+  </si>
+  <si>
+    <t>executive functions, drift-diffusion model, speed of information uptake, cognitive abilities, working memory capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study to assess the factor structure of executive functions (i.e., inhibition, updating, and shifting) with the attempt to use error free and valid measures of individual differences, such as the drift rate parameter from the drift difusion model. Some test where administered in a first measurement wave (including Flanker and Stroop task) and others in a second wave (including negative priming task). </t>
+  </si>
+  <si>
+    <t>German participants recruited via advertisements and the university's participant pool</t>
+  </si>
+  <si>
+    <t>Löffler Stroop</t>
+  </si>
+  <si>
+    <t>Löffler Flanker</t>
+  </si>
+  <si>
+    <t>Löffler Negative Priming</t>
+  </si>
+  <si>
+    <t>negative priming</t>
+  </si>
+  <si>
+    <t>Color stroop task: Participants categorized the color of a presented word using one of four keys; irrelevant stimulus was the words' semantic meaning</t>
+  </si>
+  <si>
+    <t>Arrow flanker task: Participants had to identify the direction a central arrow pointed to while ignoring the direction of flanking arrows (2 flanking arrows on each side)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Löffler Stroop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Löffler Flanker </t>
+  </si>
+  <si>
+    <t>dataset60</t>
+  </si>
+  <si>
+    <t>dataset59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Löffler stroop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2? </t>
   </si>
 </sst>
 </file>
@@ -1857,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2181,6 +2238,32 @@
       </c>
       <c r="I12" t="s">
         <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>464</v>
+      </c>
+      <c r="G13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -2202,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2720,6 +2803,20 @@
         <v>397</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>462</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2729,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3731,6 +3828,24 @@
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>31.52</v>
+      </c>
+      <c r="E43">
+        <v>0.65</v>
+      </c>
+      <c r="F43">
+        <v>148</v>
+      </c>
+      <c r="G43" t="s">
+        <v>468</v>
+      </c>
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.35">
@@ -3758,10 +3873,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4369,6 +4484,36 @@
         <v>132</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>469</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>470</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>471</v>
+      </c>
+      <c r="C46" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4376,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6629,6 +6774,52 @@
       </c>
       <c r="K65" t="s">
         <v>446</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>475</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>200</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>476</v>
+      </c>
+      <c r="C67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>200</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>103</v>
+      </c>
+      <c r="K67" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -6701,10 +6892,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7871,6 +8062,22 @@
         <v>281</v>
       </c>
     </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>479</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>479</v>
+      </c>
+      <c r="C88" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7880,7 +8087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D574C7-B710-41AB-B4FF-59198CB12E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EFDAE6-7EB0-45F7-8FAD-DA8CE5DCECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="488">
   <si>
     <t>study</t>
   </si>
@@ -1479,10 +1479,31 @@
     <t>dataset59</t>
   </si>
   <si>
-    <t xml:space="preserve">Löffler stroop </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2? </t>
+    <t>Löffler stroop</t>
+  </si>
+  <si>
+    <t>Löffler negative priming</t>
+  </si>
+  <si>
+    <t>Löffler flanker</t>
+  </si>
+  <si>
+    <t>https://github.com/jstbcs/acdc-database/tree/main/data/loeffler_2022_common/Stroop_task</t>
+  </si>
+  <si>
+    <t>https://github.com/jstbcs/acdc-database/tree/main/data/loeffler_2022_common/Flanker_task</t>
+  </si>
+  <si>
+    <t>dataset61</t>
+  </si>
+  <si>
+    <t>https://github.com/jstbcs/acdc-database/tree/main/data/loeffler_2022_common/Neg_priming_task</t>
+  </si>
+  <si>
+    <t>Löffler, C., Frischkorn, G. T., Hagemann, D., Sadus, K., &amp; Schubert, A. L. (2022). The common factor of executive functions measures nothing but speed of information uptake.  PsyArXiv. https://doi.org/10.31234/osf.io/xvdyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In each trial an O and an X appeared, each on either side of the screen. Participants had to classify the position of the O while ignoring the X. In negatively primed trials (incongruent), the O appeared on the side that the X had appeared in the previous trials. Trials in which the O appeared on the same side as it had in the previous trial, no negative priming occured (congruent). </t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1599,6 +1620,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1917,7 +1939,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2259,8 +2281,8 @@
       <c r="G13" t="s">
         <v>466</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>104</v>
+      <c r="H13" s="14" t="s">
+        <v>486</v>
       </c>
       <c r="I13" t="s">
         <v>465</v>
@@ -2827,7 +2849,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3875,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="D33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4513,6 +4535,9 @@
       <c r="C46" t="s">
         <v>472</v>
       </c>
+      <c r="D46" t="s">
+        <v>487</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4521,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6777,17 +6802,23 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1</v>
+      </c>
       <c r="B66" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C66" t="s">
         <v>103</v>
       </c>
+      <c r="D66">
+        <v>148</v>
+      </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6795,22 +6826,34 @@
       <c r="H66" t="s">
         <v>103</v>
       </c>
+      <c r="I66" t="s">
+        <v>175</v>
+      </c>
+      <c r="J66" t="s">
+        <v>483</v>
+      </c>
       <c r="K66" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1</v>
+      </c>
       <c r="B67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C67" t="s">
         <v>103</v>
       </c>
+      <c r="D67">
+        <v>147</v>
+      </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6818,8 +6861,49 @@
       <c r="H67" t="s">
         <v>103</v>
       </c>
+      <c r="I67" t="s">
+        <v>175</v>
+      </c>
+      <c r="J67" t="s">
+        <v>482</v>
+      </c>
       <c r="K67" t="s">
-        <v>478</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>480</v>
+      </c>
+      <c r="C68" t="s">
+        <v>364</v>
+      </c>
+      <c r="D68">
+        <v>142</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>192</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>103</v>
+      </c>
+      <c r="I68" t="s">
+        <v>175</v>
+      </c>
+      <c r="J68" t="s">
+        <v>485</v>
+      </c>
+      <c r="K68" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -6892,10 +6976,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8064,18 +8148,35 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C87">
         <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>479</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
         <v>480</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -8085,10 +8186,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8930,6 +9031,21 @@
         <v>428</v>
       </c>
     </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B94" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EFDAE6-7EB0-45F7-8FAD-DA8CE5DCECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5CC48-2CE5-467F-8F94-43CA2BF2618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="504">
   <si>
     <t>study</t>
   </si>
@@ -1504,6 +1504,54 @@
   </si>
   <si>
     <t xml:space="preserve">In each trial an O and an X appeared, each on either side of the screen. Participants had to classify the position of the O while ignoring the X. In negatively primed trials (incongruent), the O appeared on the side that the X had appeared in the previous trials. Trials in which the O appeared on the same side as it had in the previous trial, no negative priming occured (congruent). </t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>500?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinson Flanker task </t>
+  </si>
+  <si>
+    <t>Arrow flanker task in which participants idnicate the direction of a central arrow while ignoring the direction of flanking arrows (one left, one right, one below, and one above the central arrow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinson flanker </t>
+  </si>
+  <si>
+    <t>dataset62</t>
+  </si>
+  <si>
+    <t>Robinson flanker</t>
+  </si>
+  <si>
+    <t>Users of the Lumosity platform who had trained at least 60 sessions (of 60 trails each) of the task switching and flanker task</t>
+  </si>
+  <si>
+    <t>60?</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study links computational models of the task switching and the Erikson flanker task, to determining which latent constructs are shared between cognitive control tasks. Data is taken from users of an online platform who extensively trained for the tasks. </t>
+  </si>
+  <si>
+    <t>Maria M. Robinson, Mark Steyvers</t>
+  </si>
+  <si>
+    <t>Robinson, M. M., &amp; Steyvers, M. (2023). Linking computational models of two core tasks of cognitive control. Psychological Review, 130(1), 71–101.https://doi.org/10.1037/rev0000395</t>
+  </si>
+  <si>
+    <t>robinson_2023_linking</t>
+  </si>
+  <si>
+    <t>theories of cognitive control, linking models of cognition, Eriksen flanker task, task-switching task, cognitive training</t>
+  </si>
+  <si>
+    <t>mrobinson@ucsd.edu</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1561,6 +1609,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1620,7 +1675,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1936,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2281,11 +2336,37 @@
       <c r="G13" t="s">
         <v>466</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" t="s">
         <v>486</v>
       </c>
       <c r="I13" t="s">
         <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14">
+        <v>2023</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14" t="s">
+        <v>502</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="I14" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -2300,6 +2381,7 @@
     <hyperlink ref="F5" r:id="rId8" xr:uid="{1AC344C5-7FEF-42ED-A7EA-742769BFDA83}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{6EE7083C-CB23-46FC-B9FB-ED39AD2DCC15}"/>
     <hyperlink ref="F12" r:id="rId10" xr:uid="{E1360CE3-FFB6-477F-A262-E234B0E97B60}"/>
+    <hyperlink ref="H14" r:id="rId11" display="https://psycnet.apa.org/doi/10.1037/rev0000395" xr:uid="{5AC0FBBB-6C20-48BE-BC60-DBCC282D7CF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2307,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2839,6 +2921,20 @@
         <v>467</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>488</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2848,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3871,6 +3967,24 @@
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>488</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>58</v>
+      </c>
+      <c r="E44">
+        <v>0.66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>489</v>
+      </c>
+      <c r="G44" t="s">
+        <v>495</v>
+      </c>
       <c r="P44" s="10"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.35">
@@ -3895,10 +4009,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="D33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4539,6 +4653,17 @@
         <v>487</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>490</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>491</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4546,10 +4671,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6904,6 +7029,32 @@
       </c>
       <c r="K68" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>492</v>
+      </c>
+      <c r="C69" t="s">
+        <v>364</v>
+      </c>
+      <c r="E69" t="s">
+        <v>496</v>
+      </c>
+      <c r="F69">
+        <v>60</v>
+      </c>
+      <c r="H69" t="s">
+        <v>103</v>
+      </c>
+      <c r="I69" t="s">
+        <v>412</v>
+      </c>
+      <c r="J69" t="s">
+        <v>497</v>
+      </c>
+      <c r="K69" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -6976,10 +7127,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8179,6 +8330,17 @@
         <v>281</v>
       </c>
     </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>494</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8186,10 +8348,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92:B94"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9046,6 +9208,11 @@
         <v>480</v>
       </c>
     </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B95" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5CC48-2CE5-467F-8F94-43CA2BF2618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F232D2-ECF2-4E47-9DFB-A5172B5839F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="509">
   <si>
     <t>study</t>
   </si>
@@ -1552,6 +1552,21 @@
   </si>
   <si>
     <t>mrobinson@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Enkavi shape matching</t>
+  </si>
+  <si>
+    <t>Enakvi shape matching task</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/jstbcs/acdc-database/main/data/enkavi_2019_large/shape_matching.csv</t>
+  </si>
+  <si>
+    <t>dataset63</t>
+  </si>
+  <si>
+    <t>Participants had to indicate whether a green and a white shape, appearing on opposite sides of the screen, were identical. On half of the trials, a distracting red shape appeared underneath the green one. Participants had to ignore the red shape. Negative priming occurs when the current target shape (green) is identical to the distractor (red shape) in the previous trial. In our data base, such trials are coded as incongruent.</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2009,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2391,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4009,10 +4024,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4664,6 +4679,17 @@
         <v>491</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>504</v>
+      </c>
+      <c r="C48" t="s">
+        <v>396</v>
+      </c>
+      <c r="D48" t="s">
+        <v>508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4671,10 +4697,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7038,7 +7064,8 @@
       <c r="C69" t="s">
         <v>364</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="13" t="s">
         <v>496</v>
       </c>
       <c r="F69">
@@ -7050,11 +7077,40 @@
       <c r="I69" t="s">
         <v>412</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="13" t="s">
         <v>497</v>
       </c>
       <c r="K69" t="s">
         <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>505</v>
+      </c>
+      <c r="C70" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70">
+        <v>522</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>180</v>
+      </c>
+      <c r="H70" t="s">
+        <v>103</v>
+      </c>
+      <c r="I70" t="s">
+        <v>175</v>
+      </c>
+      <c r="J70" t="s">
+        <v>506</v>
+      </c>
+      <c r="K70" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F232D2-ECF2-4E47-9DFB-A5172B5839F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8E3053-F382-40C4-BE68-C509E82AE175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="497">
   <si>
     <t>study</t>
   </si>
@@ -1506,54 +1506,12 @@
     <t xml:space="preserve">In each trial an O and an X appeared, each on either side of the screen. Participants had to classify the position of the O while ignoring the X. In negatively primed trials (incongruent), the O appeared on the side that the X had appeared in the previous trials. Trials in which the O appeared on the same side as it had in the previous trial, no negative priming occured (congruent). </t>
   </si>
   <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>500?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robinson Flanker task </t>
-  </si>
-  <si>
-    <t>Arrow flanker task in which participants idnicate the direction of a central arrow while ignoring the direction of flanking arrows (one left, one right, one below, and one above the central arrow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robinson flanker </t>
-  </si>
-  <si>
     <t>dataset62</t>
   </si>
   <si>
     <t>Robinson flanker</t>
   </si>
   <si>
-    <t>Users of the Lumosity platform who had trained at least 60 sessions (of 60 trails each) of the task switching and flanker task</t>
-  </si>
-  <si>
-    <t>60?</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This study links computational models of the task switching and the Erikson flanker task, to determining which latent constructs are shared between cognitive control tasks. Data is taken from users of an online platform who extensively trained for the tasks. </t>
-  </si>
-  <si>
-    <t>Maria M. Robinson, Mark Steyvers</t>
-  </si>
-  <si>
-    <t>Robinson, M. M., &amp; Steyvers, M. (2023). Linking computational models of two core tasks of cognitive control. Psychological Review, 130(1), 71–101.https://doi.org/10.1037/rev0000395</t>
-  </si>
-  <si>
-    <t>robinson_2023_linking</t>
-  </si>
-  <si>
-    <t>theories of cognitive control, linking models of cognition, Eriksen flanker task, task-switching task, cognitive training</t>
-  </si>
-  <si>
-    <t>mrobinson@ucsd.edu</t>
-  </si>
-  <si>
     <t>Enkavi shape matching</t>
   </si>
   <si>
@@ -1563,10 +1521,16 @@
     <t>https://raw.githubusercontent.com/jstbcs/acdc-database/main/data/enkavi_2019_large/shape_matching.csv</t>
   </si>
   <si>
-    <t>dataset63</t>
-  </si>
-  <si>
     <t>Participants had to indicate whether a green and a white shape, appearing on opposite sides of the screen, were identical. On half of the trials, a distracting red shape appeared underneath the green one. Participants had to ignore the red shape. Negative priming occurs when the current target shape (green) is identical to the distractor (red shape) in the previous trial. In our data base, such trials are coded as incongruent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enkavi shape matching task </t>
+  </si>
+  <si>
+    <t>Enkavi shape matching task</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1691,6 +1655,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2009,7 +1977,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A14" sqref="A14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2359,30 +2327,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>488</v>
-      </c>
-      <c r="B14" t="s">
-        <v>499</v>
-      </c>
-      <c r="C14">
-        <v>2023</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>503</v>
-      </c>
-      <c r="G14" t="s">
-        <v>502</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="I14" t="s">
-        <v>501</v>
-      </c>
+      <c r="H14" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2396,7 +2341,6 @@
     <hyperlink ref="F5" r:id="rId8" xr:uid="{1AC344C5-7FEF-42ED-A7EA-742769BFDA83}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{6EE7083C-CB23-46FC-B9FB-ED39AD2DCC15}"/>
     <hyperlink ref="F12" r:id="rId10" xr:uid="{E1360CE3-FFB6-477F-A262-E234B0E97B60}"/>
-    <hyperlink ref="H14" r:id="rId11" display="https://psycnet.apa.org/doi/10.1037/rev0000395" xr:uid="{5AC0FBBB-6C20-48BE-BC60-DBCC282D7CF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2404,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2936,20 +2880,6 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>488</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>498</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2960,7 +2890,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="B44" sqref="B44:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3982,24 +3912,6 @@
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>488</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>58</v>
-      </c>
-      <c r="E44">
-        <v>0.66</v>
-      </c>
-      <c r="F44" t="s">
-        <v>489</v>
-      </c>
-      <c r="G44" t="s">
-        <v>495</v>
-      </c>
       <c r="P44" s="10"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.35">
@@ -4024,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4673,21 +4585,10 @@
         <v>490</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>396</v>
       </c>
       <c r="D47" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>504</v>
-      </c>
-      <c r="C48" t="s">
-        <v>396</v>
-      </c>
-      <c r="D48" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4697,10 +4598,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7059,58 +6960,34 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C69" t="s">
         <v>364</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13" t="s">
-        <v>496</v>
+      <c r="D69">
+        <v>522</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>103</v>
       </c>
       <c r="I69" t="s">
-        <v>412</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>497</v>
+        <v>175</v>
+      </c>
+      <c r="J69" t="s">
+        <v>492</v>
       </c>
       <c r="K69" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>505</v>
-      </c>
-      <c r="C70" t="s">
-        <v>364</v>
-      </c>
-      <c r="D70">
-        <v>522</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>180</v>
-      </c>
-      <c r="H70" t="s">
-        <v>103</v>
-      </c>
-      <c r="I70" t="s">
-        <v>175</v>
-      </c>
-      <c r="J70" t="s">
-        <v>506</v>
-      </c>
-      <c r="K70" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -7185,8 +7062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8390,12 +8267,8 @@
       <c r="B90" t="s">
         <v>494</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>281</v>
-      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8404,10 +8277,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9266,7 +9139,17 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B95" s="11" t="s">
-        <v>494</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B96" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="13" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8E3053-F382-40C4-BE68-C509E82AE175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A17529-217D-4C82-A20E-993494BFE08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -1521,9 +1521,6 @@
     <t>https://raw.githubusercontent.com/jstbcs/acdc-database/main/data/enkavi_2019_large/shape_matching.csv</t>
   </si>
   <si>
-    <t>Participants had to indicate whether a green and a white shape, appearing on opposite sides of the screen, were identical. On half of the trials, a distracting red shape appeared underneath the green one. Participants had to ignore the red shape. Negative priming occurs when the current target shape (green) is identical to the distractor (red shape) in the previous trial. In our data base, such trials are coded as incongruent.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enkavi shape matching task </t>
   </si>
   <si>
@@ -1531,6 +1528,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants had to indicate whether a green and a white shape, appearing on opposite sides of the screen, were identical. On half of the trials, a distracting red shape appeared underneath the green one. Participants had to ignore the red shape. Negative priming occurs when the current probe shape (green) is identical to the distractor (red shape) in the previous trial. In our data base, such trials are coded as incongruent. Trials in which the red shape and the green shape were not identical are coded as congruent, and trials where there had been no distractor in the previous trial are neutral. </t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1655,8 +1655,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1977,7 +1976,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2350,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2890,7 +2889,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:J44"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3938,8 +3937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:D47"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4588,7 +4587,7 @@
         <v>396</v>
       </c>
       <c r="D47" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4600,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6959,6 +6958,9 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1</v>
+      </c>
       <c r="B69" t="s">
         <v>491</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>103</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="J69" t="s">
         <v>492</v>
@@ -7062,8 +7064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90:D90"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8265,10 +8267,10 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>494</v>
-      </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
+        <v>493</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9144,12 +9146,12 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A17529-217D-4C82-A20E-993494BFE08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F777697D-1A57-43B0-86C8-FECB4759D5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="498">
   <si>
     <t>study</t>
   </si>
@@ -287,19 +287,10 @@
     <t>Whitehead study 1</t>
   </si>
   <si>
-    <t>Task battery of stroop, flanker, and simon task in random order</t>
-  </si>
-  <si>
     <t>Whitehead study 2</t>
   </si>
   <si>
-    <t>Task battery of stroop, flanker, and simon task in pseudo-randomized order</t>
-  </si>
-  <si>
     <t>Whitehead study 3</t>
-  </si>
-  <si>
-    <t>Task battery of stroop, flanker, and simon task this order</t>
   </si>
   <si>
     <t>Task battery of stroop task, AX-CPT, cued task switching, and sternberg item-recognition task; collected in 30 sessions in 6 weeks</t>
@@ -1521,16 +1512,28 @@
     <t>https://raw.githubusercontent.com/jstbcs/acdc-database/main/data/enkavi_2019_large/shape_matching.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">Enkavi shape matching task </t>
-  </si>
-  <si>
-    <t>Enkavi shape matching task</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Participants had to indicate whether a green and a white shape, appearing on opposite sides of the screen, were identical. On half of the trials, a distracting red shape appeared underneath the green one. Participants had to ignore the red shape. Negative priming occurs when the current probe shape (green) is identical to the distractor (red shape) in the previous trial. In our data base, such trials are coded as incongruent. Trials in which the red shape and the green shape were not identical are coded as congruent, and trials where there had been no distractor in the previous trial are neutral. </t>
+  </si>
+  <si>
+    <t>Enkavi shape matching task test</t>
+  </si>
+  <si>
+    <t>Enkavi shape matching task retest</t>
+  </si>
+  <si>
+    <t>Enkavi shape matching wave 1</t>
+  </si>
+  <si>
+    <t>Enkavi shape matching wave 2</t>
+  </si>
+  <si>
+    <t>Task battery of stroop, flanker, and simon task in random order. Data taken from Experiment 1 in Whitehead, Brewer &amp; Blais (2019)</t>
+  </si>
+  <si>
+    <t>Task battery of stroop, flanker, and simon task in pseudo-randomized order. Proportion of congruent:incongruent trials was 25:75% in order to account for episodic memory. Data taken from Experiment 2 in Whitehead, Brewer &amp; Blais (2019)</t>
+  </si>
+  <si>
+    <t>Task battery of stroop, flanker, and simon task this order. The congruency ratio in this study was 50:50. Data taken from Experiment 3 in Whitehead, Brewer &amp; Blais (2019)</t>
   </si>
 </sst>
 </file>
@@ -1655,9 +1658,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1976,7 +1977,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2132,7 +2133,7 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="15"/>
       <c r="G6" t="s">
         <v>39</v>
       </c>
@@ -2249,10 +2250,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -2261,50 +2262,50 @@
         <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C12">
         <v>2023</v>
       </c>
       <c r="E12" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G12" t="s">
+        <v>373</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="I12" t="s">
         <v>374</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G12" t="s">
-        <v>376</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="I12" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2313,16 +2314,16 @@
         <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H13" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2349,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56954744-AC6A-40FE-AAFF-6494252F15D0}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2470,12 +2471,12 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2484,12 +2485,12 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2498,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -2512,7 +2513,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2526,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2540,12 +2541,12 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2554,12 +2555,12 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2568,12 +2569,12 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2582,12 +2583,12 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2596,12 +2597,12 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2610,12 +2611,12 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2624,12 +2625,12 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2638,12 +2639,12 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2652,12 +2653,12 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2666,12 +2667,12 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2680,12 +2681,12 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2694,12 +2695,12 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2708,12 +2709,12 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2722,12 +2723,12 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2736,12 +2737,12 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2750,12 +2751,12 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2764,12 +2765,12 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2778,12 +2779,12 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2792,12 +2793,12 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2806,12 +2807,12 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2820,12 +2821,12 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2834,12 +2835,12 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2848,12 +2849,12 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2862,12 +2863,12 @@
         <v>6</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2876,7 +2877,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -2888,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF0719-54A4-4A0C-BDDA-03EA16BD7F02}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2904,25 +2905,25 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -2939,7 +2940,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -2956,7 +2957,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -2964,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2980,7 +2981,7 @@
         <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -3004,7 +3005,7 @@
         <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -3028,7 +3029,7 @@
         <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -3052,7 +3053,7 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -3076,7 +3077,7 @@
         <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -3092,8 +3093,8 @@
       <c r="F9">
         <v>221</v>
       </c>
-      <c r="H9" t="s">
-        <v>103</v>
+      <c r="G9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -3101,16 +3102,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>222</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
+        <v>216</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -3118,16 +3119,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
+      <c r="F11" s="15">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -3151,7 +3152,7 @@
         <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -3174,7 +3175,7 @@
         <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -3182,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3195,7 +3196,7 @@
         <v>201</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -3203,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3218,10 +3219,10 @@
         <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10">
@@ -3231,7 +3232,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3246,10 +3247,10 @@
         <v>288</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10">
@@ -3259,7 +3260,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3274,10 +3275,10 @@
         <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10">
@@ -3287,7 +3288,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3302,10 +3303,10 @@
         <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10">
@@ -3315,7 +3316,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3330,10 +3331,10 @@
         <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10">
@@ -3343,7 +3344,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3358,10 +3359,10 @@
         <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10">
@@ -3371,7 +3372,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3386,10 +3387,10 @@
         <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10">
@@ -3399,7 +3400,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3414,10 +3415,10 @@
         <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10">
@@ -3427,7 +3428,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3442,10 +3443,10 @@
         <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10">
@@ -3455,7 +3456,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3470,10 +3471,10 @@
         <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10">
@@ -3483,7 +3484,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3498,10 +3499,10 @@
         <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10">
@@ -3511,7 +3512,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3526,10 +3527,10 @@
         <v>119</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10">
@@ -3539,7 +3540,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3554,10 +3555,10 @@
         <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10">
@@ -3567,7 +3568,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3582,10 +3583,10 @@
         <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10">
@@ -3595,7 +3596,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3610,7 +3611,7 @@
         <v>621</v>
       </c>
       <c r="G29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -3621,7 +3622,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3636,10 +3637,10 @@
         <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10">
@@ -3649,7 +3650,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3664,10 +3665,10 @@
         <v>181</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10">
@@ -3677,7 +3678,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3692,10 +3693,10 @@
         <v>84</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10">
@@ -3705,7 +3706,7 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3720,10 +3721,10 @@
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10">
@@ -3733,7 +3734,7 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3748,10 +3749,10 @@
         <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -3759,7 +3760,7 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3774,10 +3775,10 @@
         <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -3785,7 +3786,7 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3800,7 +3801,7 @@
         <v>522</v>
       </c>
       <c r="G36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -3809,18 +3810,18 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3829,12 +3830,12 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -3843,12 +3844,12 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3857,12 +3858,12 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3871,12 +3872,12 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -3885,13 +3886,13 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3906,7 +3907,7 @@
         <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="S43" s="10"/>
     </row>
@@ -3937,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE889DDA-04E7-4061-88E6-E2249FD9EC36}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3949,16 +3950,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -3966,13 +3967,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3980,13 +3981,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3994,13 +3995,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -4008,13 +4009,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -4022,13 +4023,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -4036,13 +4037,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -4050,13 +4051,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -4064,13 +4065,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4078,13 +4079,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4092,13 +4093,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4106,13 +4107,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4120,13 +4121,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -4134,13 +4135,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -4148,13 +4149,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -4162,13 +4163,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -4176,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -4190,13 +4191,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -4204,13 +4205,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -4218,13 +4219,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -4232,13 +4233,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -4246,13 +4247,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -4260,13 +4261,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -4274,13 +4275,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -4288,13 +4289,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -4302,13 +4303,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -4319,10 +4320,10 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -4330,13 +4331,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -4344,13 +4345,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4358,10 +4359,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -4372,10 +4373,10 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -4383,13 +4384,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
         <v>354</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -4397,13 +4398,13 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -4411,13 +4412,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D34" t="s">
         <v>396</v>
-      </c>
-      <c r="D34" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -4425,13 +4426,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D35" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -4439,13 +4440,13 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C36" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D36" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -4453,13 +4454,13 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
+        <v>390</v>
+      </c>
+      <c r="C37" t="s">
         <v>393</v>
       </c>
-      <c r="C37" t="s">
-        <v>396</v>
-      </c>
       <c r="D37" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -4467,13 +4468,13 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -4481,13 +4482,13 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C39" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D39" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -4495,13 +4496,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -4509,13 +4510,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -4523,13 +4524,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -4537,57 +4538,57 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D46" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
+        <v>487</v>
+      </c>
+      <c r="C47" t="s">
+        <v>393</v>
+      </c>
+      <c r="D47" t="s">
         <v>490</v>
-      </c>
-      <c r="C47" t="s">
-        <v>396</v>
-      </c>
-      <c r="D47" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4599,8 +4600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4616,37 +4617,37 @@
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -4654,10 +4655,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -4672,16 +4673,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" t="s">
         <v>174</v>
-      </c>
-      <c r="I2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
@@ -4689,10 +4690,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>38</v>
@@ -4707,16 +4708,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" t="s">
         <v>175</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
@@ -4724,10 +4725,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>38</v>
@@ -4742,16 +4743,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -4759,10 +4760,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>38</v>
@@ -4777,16 +4778,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
@@ -4794,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>129</v>
@@ -4812,16 +4813,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
@@ -4829,10 +4830,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>129</v>
@@ -4847,16 +4848,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
@@ -4864,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>129</v>
@@ -4882,16 +4883,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="K8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
@@ -4899,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>129</v>
@@ -4917,16 +4918,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4934,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>47</v>
@@ -4952,16 +4953,16 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -4980,10 +4981,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>47</v>
@@ -4998,16 +4999,16 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -5026,10 +5027,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>60</v>
@@ -5044,16 +5045,16 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -5072,10 +5073,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>60</v>
@@ -5090,16 +5091,16 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
@@ -5118,10 +5119,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D14">
         <v>121</v>
@@ -5136,16 +5137,16 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
@@ -5153,10 +5154,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D15">
         <v>121</v>
@@ -5171,16 +5172,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
@@ -5188,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D16">
         <v>121</v>
@@ -5206,16 +5207,16 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -5223,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D17">
         <v>221</v>
@@ -5241,16 +5242,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -5258,10 +5259,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D18">
         <v>221</v>
@@ -5276,16 +5277,16 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" t="s">
         <v>204</v>
-      </c>
-      <c r="I18" t="s">
-        <v>175</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -5293,10 +5294,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D19">
         <v>221</v>
@@ -5311,16 +5312,16 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" t="s">
         <v>205</v>
-      </c>
-      <c r="K19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -5328,10 +5329,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>222</v>
@@ -5346,16 +5347,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -5363,10 +5364,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D21">
         <v>222</v>
@@ -5381,16 +5382,16 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -5398,10 +5399,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D22">
         <v>222</v>
@@ -5416,16 +5417,16 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -5433,10 +5434,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D23">
         <v>222</v>
@@ -5451,16 +5452,16 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -5468,10 +5469,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D24">
         <v>221</v>
@@ -5486,16 +5487,16 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -5503,10 +5504,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D25">
         <v>224</v>
@@ -5521,16 +5522,16 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -5538,10 +5539,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D26">
         <v>179</v>
@@ -5556,16 +5557,16 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -5576,7 +5577,7 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <v>58</v>
@@ -5591,16 +5592,16 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -5608,10 +5609,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>201</v>
@@ -5626,16 +5627,16 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -5643,10 +5644,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D29">
         <v>199</v>
@@ -5661,16 +5662,16 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -5678,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -5695,10 +5696,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D31">
         <v>163</v>
@@ -5713,16 +5714,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -5730,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D32">
         <v>288</v>
@@ -5748,16 +5749,16 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J32" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" t="s">
         <v>236</v>
-      </c>
-      <c r="K32" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -5765,10 +5766,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D33">
         <v>138</v>
@@ -5783,16 +5784,16 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -5800,10 +5801,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D34">
         <v>196</v>
@@ -5818,16 +5819,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -5835,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D35">
         <v>93</v>
@@ -5853,16 +5854,16 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K35" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -5870,10 +5871,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D36">
         <v>177</v>
@@ -5888,16 +5889,16 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -5905,10 +5906,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D37">
         <v>127</v>
@@ -5923,16 +5924,16 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K37" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -5940,10 +5941,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D38">
         <v>145</v>
@@ -5958,16 +5959,16 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -5975,10 +5976,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D39">
         <v>132</v>
@@ -5993,16 +5994,16 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -6010,10 +6011,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D40">
         <v>82</v>
@@ -6028,16 +6029,16 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -6045,10 +6046,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D41">
         <v>101</v>
@@ -6063,16 +6064,16 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -6080,10 +6081,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D42">
         <v>119</v>
@@ -6098,16 +6099,16 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K42" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -6115,10 +6116,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D43">
         <v>101</v>
@@ -6133,16 +6134,16 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K43" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -6150,10 +6151,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D44">
         <v>120</v>
@@ -6168,16 +6169,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -6185,10 +6186,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D45">
         <v>621</v>
@@ -6203,16 +6204,16 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -6220,10 +6221,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D46">
         <v>97</v>
@@ -6238,16 +6239,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K46" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -6255,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D47">
         <v>181</v>
@@ -6273,16 +6274,16 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -6290,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D48">
         <v>84</v>
@@ -6308,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -6325,10 +6326,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D49">
         <v>51</v>
@@ -6343,16 +6344,16 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K49" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -6360,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D50">
         <v>252</v>
@@ -6378,16 +6379,16 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K50" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -6395,10 +6396,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D51">
         <v>129</v>
@@ -6413,16 +6414,16 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I51" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -6430,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <v>522</v>
@@ -6448,16 +6449,16 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -6465,10 +6466,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C53" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D53">
         <v>522</v>
@@ -6483,16 +6484,16 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K53" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -6500,7 +6501,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -6508,7 +6509,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -6516,25 +6517,25 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C56" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I56" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K56" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -6542,10 +6543,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C57" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D57">
         <v>31</v>
@@ -6560,16 +6561,16 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I57" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K57" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -6577,10 +6578,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C58" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -6595,16 +6596,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J58" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K58" t="s">
         <v>405</v>
-      </c>
-      <c r="K58" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -6612,10 +6613,10 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C59" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D59">
         <v>31</v>
@@ -6630,16 +6631,16 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I59" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K59" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -6647,10 +6648,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C60" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D60">
         <v>33</v>
@@ -6665,16 +6666,16 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I60" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K60" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -6682,10 +6683,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C61" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D61">
         <v>30</v>
@@ -6700,16 +6701,16 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K61" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -6717,10 +6718,10 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D62">
         <v>158</v>
@@ -6735,16 +6736,16 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K62" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -6752,10 +6753,10 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D63">
         <v>156</v>
@@ -6770,16 +6771,16 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I63" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K63" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -6787,10 +6788,10 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <v>158</v>
@@ -6805,16 +6806,16 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I64" t="s">
+        <v>179</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="K64" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -6822,10 +6823,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D65">
         <v>157</v>
@@ -6840,16 +6841,16 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I65" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K65" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -6857,10 +6858,10 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D66">
         <v>148</v>
@@ -6875,16 +6876,16 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J66" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K66" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -6892,10 +6893,10 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D67">
         <v>147</v>
@@ -6910,16 +6911,16 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J67" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K67" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -6927,10 +6928,10 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C68" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D68">
         <v>142</v>
@@ -6945,16 +6946,16 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I68" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J68" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K68" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -6962,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D69">
         <v>522</v>
@@ -6980,16 +6981,16 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J69" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K69" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -7062,10 +7063,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7077,16 +7078,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -7094,13 +7095,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -7108,13 +7109,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -7122,13 +7123,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -7136,13 +7137,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -7150,13 +7151,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -7164,13 +7165,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -7178,13 +7179,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -7192,13 +7193,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -7206,13 +7207,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -7220,13 +7221,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -7234,13 +7235,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -7248,13 +7249,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7262,13 +7263,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -7276,13 +7277,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -7290,13 +7291,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -7304,13 +7305,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -7318,13 +7319,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -7332,13 +7333,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -7346,13 +7347,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -7360,13 +7361,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -7374,13 +7375,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -7388,13 +7389,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -7402,13 +7403,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -7416,13 +7417,13 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -7430,13 +7431,13 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -7444,13 +7445,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -7458,13 +7459,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -7472,13 +7473,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -7486,13 +7487,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -7500,13 +7501,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -7514,13 +7515,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -7528,13 +7529,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -7542,13 +7543,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -7556,13 +7557,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C35">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -7570,13 +7571,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C36">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -7584,13 +7585,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -7598,13 +7599,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -7612,13 +7613,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -7626,13 +7627,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C40">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -7640,13 +7641,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C41">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -7654,13 +7655,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -7668,13 +7669,13 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C43">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -7688,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -7696,13 +7697,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -7710,13 +7711,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -7724,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -7733,13 +7734,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -7747,13 +7748,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -7761,13 +7762,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -7775,13 +7776,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -7789,13 +7790,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -7803,13 +7804,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -7817,13 +7818,13 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -7831,13 +7832,13 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -7845,13 +7846,13 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -7859,13 +7860,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -7873,13 +7874,13 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -7887,13 +7888,13 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -7901,13 +7902,13 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -7915,13 +7916,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -7929,13 +7930,13 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -7943,13 +7944,13 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -7957,13 +7958,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -7971,13 +7972,13 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -7985,13 +7986,13 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -7999,13 +8000,13 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -8013,13 +8014,13 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -8027,13 +8028,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8041,13 +8042,13 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -8055,13 +8056,13 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -8069,208 +8070,223 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>493</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="15"/>
+        <v>491</v>
+      </c>
+      <c r="C90" s="15">
+        <v>1</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>492</v>
+      </c>
+      <c r="C91" s="15">
+        <v>2</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>359</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8281,8 +8297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1346955-E561-4BA2-96D5-97F4D829E993}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8295,22 +8311,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -8318,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -8326,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -8334,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -8342,7 +8358,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -8350,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -8358,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -8367,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -8376,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -8385,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -8394,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -8403,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -8412,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -8421,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -8429,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -8437,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -8445,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -8453,7 +8469,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -8461,7 +8477,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -8469,7 +8485,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -8477,7 +8493,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -8485,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -8493,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -8501,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -8509,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -8517,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -8525,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -8533,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -8541,7 +8557,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -8549,7 +8565,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -8557,7 +8573,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -8565,7 +8581,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -8573,7 +8589,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -8581,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -8589,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -8597,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -8605,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -8613,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -8621,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -8629,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -8637,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -8645,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -8653,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -8661,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -8669,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -8677,7 +8693,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -8685,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -8701,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -8709,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -8717,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -8725,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -8733,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -8741,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -8749,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -8757,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -8765,7 +8781,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -8773,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -8781,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -8789,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -8797,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -8805,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -8813,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -8821,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -8829,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -8837,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -8845,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -8853,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -8861,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -8869,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -8877,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -8885,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -8893,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -8901,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -8909,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -8917,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -8925,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -8933,13 +8949,13 @@
         <v>3</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C78" s="11">
         <v>1</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -8947,13 +8963,13 @@
         <v>3</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C79" s="11">
         <v>2</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -8961,13 +8977,13 @@
         <v>3</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C80" s="11">
         <v>1</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -8975,13 +8991,13 @@
         <v>3</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C81" s="11">
         <v>2</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -8989,13 +9005,13 @@
         <v>3</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C82" s="11">
         <v>1</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -9003,13 +9019,13 @@
         <v>3</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C83" s="11">
         <v>2</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -9017,13 +9033,13 @@
         <v>3</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C84" s="11">
         <v>1</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -9031,13 +9047,13 @@
         <v>3</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C85" s="11">
         <v>2</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -9045,13 +9061,13 @@
         <v>3</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C86" s="11">
         <v>1</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -9059,13 +9075,13 @@
         <v>3</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C87" s="11">
         <v>1</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -9073,13 +9089,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C88" s="11">
         <v>2</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -9087,13 +9103,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C89" s="11">
         <v>1</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -9101,13 +9117,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C90" s="11">
         <v>1</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -9115,43 +9131,43 @@
         <v>3</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C91" s="11">
         <v>2</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B92" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B93" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B95" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B96" s="11" t="s">
+      <c r="B96" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
         <v>494</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="13" t="s">
-        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/Create_db/add_data/Book.xlsx
+++ b/Create_db/add_data/Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\acdc-database\Create_db\add_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F777697D-1A57-43B0-86C8-FECB4759D5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D5268A-C247-4F0D-A933-E8E0E361BEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8270" yWindow="21490" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication_table" sheetId="1" r:id="rId1"/>
@@ -1636,7 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1658,7 +1658,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2133,7 +2132,6 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="15"/>
       <c r="G6" t="s">
         <v>39</v>
       </c>
@@ -3124,7 +3122,7 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11">
         <v>224</v>
       </c>
       <c r="G11" t="s">
@@ -4600,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47899529-D1A8-430F-A7D5-5D9280DFB08C}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:L25"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7065,8 +7063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BAC05-7681-45EF-A477-0E81CBAC477D}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B73:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8270,10 +8268,10 @@
       <c r="B90" t="s">
         <v>491</v>
       </c>
-      <c r="C90" s="15">
-        <v>1</v>
-      </c>
-      <c r="D90" s="15" t="s">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8281,10 +8279,10 @@
       <c r="B91" t="s">
         <v>492</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91">
         <v>2</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" t="s">
         <v>359</v>
       </c>
     </row>
